--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1664.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1664.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.073894445386749</v>
+        <v>3.370383977890015</v>
       </c>
       <c r="B1">
-        <v>3.421164787391739</v>
+        <v>2.531894445419312</v>
       </c>
       <c r="C1">
-        <v>2.698915146678294</v>
+        <v>2.00196385383606</v>
       </c>
       <c r="D1">
-        <v>2.470384349481163</v>
+        <v>1.968241214752197</v>
       </c>
       <c r="E1">
-        <v>1.946977225198928</v>
+        <v>2.156696081161499</v>
       </c>
     </row>
   </sheetData>
